--- a/biology/Zoologie/Griposia_aprilina/Griposia_aprilina.xlsx
+++ b/biology/Zoologie/Griposia_aprilina/Griposia_aprilina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Griposia aprilina, la Runique, est une espèce de lépidoptères (papillons) de la famille des Noctuidae et de la sous-famille des Noctuinae.
-Les Anglo-Saxons appellent ce papillon " Merveille du jour "[1].
+Les Anglo-Saxons appellent ce papillon " Merveille du jour ".
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour certains auteurs, le genre Griposia est considéré comme sous-genre du genre Dichonia ; le nom de l'espèce est alors Dichonia (Griposia) aprilina.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce répandue en Europe bien que localisée ; en France, presque partout dans les endroits boisés.
 </t>
@@ -574,7 +590,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille, de mœurs nocturnes, se nourrit sur les chênes, les frênes et divers arbres fruitiers ; il n'y a qu'une génération par an. La nymphose a lieu dans le sol, dans de grands cocons dissimulés parmi les racines. L'émergence du papillon a généralement lieu en septembre-octobre.  
 </t>
